--- a/TestList/TMP.xlsx
+++ b/TestList/TMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12090"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>序号
 （id）</t>
@@ -51,7 +51,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jqzkzj-test1.59iedu.com:1457/admin</t>
+    <t>http://scbs.test1.59iedu.com:1457/login/index</t>
   </si>
   <si>
     <t>null</t>
@@ -66,19 +66,19 @@
     <t>Xpath</t>
   </si>
   <si>
-    <t>//input[contains(@ng-model,'model.userName')]</t>
-  </si>
-  <si>
-    <t>wuzhengbiao</t>
+    <t>//*[@id="main_operation"]/div[1]/ul/li[1]/input</t>
+  </si>
+  <si>
+    <t>zhouxy</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>//input[contains(@ng-model,'model.password')]</t>
-  </si>
-  <si>
-    <t>a000000</t>
+    <t>//*[@id="main_operation"]/div[1]/ul/li[2]/input</t>
+  </si>
+  <si>
+    <t>a123456</t>
   </si>
   <si>
     <t>click VerificationCode</t>
@@ -87,7 +87,7 @@
     <t>点击</t>
   </si>
   <si>
-    <t>//input[contains(@name,'picValidateCode')]</t>
+    <t>//*[@id="main_operation"]/div[1]/ul/li[3]/input</t>
   </si>
   <si>
     <t>空</t>
@@ -96,7 +96,7 @@
     <t>confirm VerificationCode</t>
   </si>
   <si>
-    <t>//img[contains(@alt,'验证码')]</t>
+    <t>//*[@id="main_operation"]/div[1]/ul/li[3]/span/img</t>
   </si>
   <si>
     <t xml:space="preserve"> input VerificationCode</t>
@@ -108,34 +108,25 @@
     <t>Loginbutton</t>
   </si>
   <si>
-    <t>//input[contains(@type,'submit')]</t>
-  </si>
-  <si>
-    <t>Class opening menu</t>
-  </si>
-  <si>
-    <t>http://jqzkzj-test1.59iedu.com:1457/admin/classInformation/orderInfo</t>
-  </si>
-  <si>
-    <t>Class opening query button</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/div[3]/div/div[1]/div/div/div[1]/ul/li[2]/div/input</t>
-  </si>
-  <si>
-    <t>330224197209162714</t>
-  </si>
-  <si>
-    <t>Class opening query result</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/div[3]/div/div[1]/div/div/div[1]/ul/li[4]/a</t>
-  </si>
-  <si>
-    <t>Class opening query result2</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[2]/div[3]/div/div[1]/div/div/div[4]/div[2]/div/div[2]/ul[1]/li[4]/a</t>
+    <t>//*[@id="main_operation"]/div[1]/ul/li[5]/input</t>
+  </si>
+  <si>
+    <t>fangwen</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http://scbs.test1.59iedu.com:1457/admin/courseWareCategoryManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click </t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>ico tit-new ng-scope</t>
   </si>
 </sst>
 </file>
@@ -143,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +148,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -164,6 +169,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,11 +199,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,31 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,28 +261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -255,47 +268,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,24 +498,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,9 +518,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +557,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,28 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,150 +616,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,278 +1101,233 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="82.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3">
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
-      <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C16">
-      <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15">
-      <formula1>"URL、Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D65512">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D65487">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://scbs.test1.59iedu.com:1457/login/index"/>
+    <hyperlink ref="E9" r:id="rId2" display="http://scbs.test1.59iedu.com:1457/admin/courseWareCategoryManager" tooltip="http://scbs.test1.59iedu.com:1457/admin/courseWareCategoryManager"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
